--- a/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
+++ b/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
-    <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
-    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -26,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_ICD11_to_SCT_Test_Result</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_SCT_to_ICHI_Specimen_Origin</t>
   </si>
   <si>
     <t>Version</t>
@@ -113,61 +111,43 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>http://id.who.int/icd11/mms</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>RA01.0</t>
+    <t>258500001</t>
   </si>
   <si>
     <t>equivalent</t>
   </si>
   <si>
-    <t>1240581000000104</t>
-  </si>
-  <si>
-    <t>QA02</t>
-  </si>
-  <si>
-    <t>1240591000000102</t>
-  </si>
-  <si>
     <t>50872817</t>
   </si>
   <si>
-    <t>258500001</t>
+    <t>461911000124106</t>
   </si>
   <si>
     <t>555916027</t>
   </si>
   <si>
-    <t>source-is-narrower-than-target</t>
-  </si>
-  <si>
-    <t>461911000124106</t>
-  </si>
-  <si>
     <t>472881004</t>
   </si>
   <si>
+    <t>472901003</t>
+  </si>
+  <si>
     <t>608172011</t>
   </si>
   <si>
-    <t>472901003</t>
+    <t>119342007</t>
   </si>
   <si>
     <t>1162766848</t>
   </si>
   <si>
-    <t>119342007</t>
+    <t>119297000</t>
   </si>
   <si>
     <t>1695591348</t>
-  </si>
-  <si>
-    <t>119297000</t>
   </si>
   <si>
     <t>119361006</t>
@@ -451,79 +431,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -549,299 +456,135 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>27</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
+++ b/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_SCT_to_ICHI_Specimen_Origin</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/who-ddcc-map-sct-ichi-specimen-origin</t>
   </si>
   <si>
     <t>Version</t>
@@ -96,22 +96,22 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Target</t>
+    <t/>
   </si>
   <si>
     <t>http://id.who.int/icd/entity</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>258500001</t>
@@ -290,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -407,22 +407,6 @@
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -442,33 +426,33 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">

--- a/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
+++ b/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
+++ b/refs/heads/main/who-ddcc-map-sct-ichi-specimen-origin.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
